--- a/data/trans_orig/P17_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>748732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>720881</v>
+        <v>719184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>776942</v>
+        <v>776541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7281760091884096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7010892742363832</v>
+        <v>0.6994383617579943</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7556113280035038</v>
+        <v>0.7552213895676665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1095</v>
@@ -765,19 +765,19 @@
         <v>1115207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1086380</v>
+        <v>1087596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1138121</v>
+        <v>1139287</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8485952469543658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8266599305568244</v>
+        <v>0.8275855660445472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8660311476175225</v>
+        <v>0.866918174857163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1859</v>
@@ -786,19 +786,19 @@
         <v>1863939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1826327</v>
+        <v>1824492</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1899307</v>
+        <v>1904184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7957357120898993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7796788024403842</v>
+        <v>0.7788951460397696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8108344051249081</v>
+        <v>0.8129165688816327</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>279498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251288</v>
+        <v>251689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>307349</v>
+        <v>309046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2718239908115904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2443886719964961</v>
+        <v>0.2447786104323332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2989107257636167</v>
+        <v>0.3005616382420056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -836,19 +836,19 @@
         <v>198973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176059</v>
+        <v>174893</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227800</v>
+        <v>226584</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1514047530456342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1339688523824777</v>
+        <v>0.1330818251428369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1733400694431757</v>
+        <v>0.1724144339554528</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -857,19 +857,19 @@
         <v>478471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443103</v>
+        <v>438226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>516083</v>
+        <v>517918</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2042642879101006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1891655948750919</v>
+        <v>0.1870834311183674</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2203211975596158</v>
+        <v>0.2211048539602304</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>997377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>958542</v>
+        <v>957759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1038909</v>
+        <v>1038890</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5899219214700644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5669519108909735</v>
+        <v>0.5664887637815634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6144869608651049</v>
+        <v>0.6144753095212674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1114</v>
@@ -982,19 +982,19 @@
         <v>1139273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1102866</v>
+        <v>1107837</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1173933</v>
+        <v>1181143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7180147339676194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6950701216830607</v>
+        <v>0.6982030745586345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7398591365431478</v>
+        <v>0.7444033931462812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2089</v>
@@ -1003,19 +1003,19 @@
         <v>2136650</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2082498</v>
+        <v>2075392</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2193310</v>
+        <v>2189488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6519360386594076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6354132089846231</v>
+        <v>0.6332449403330241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6692241477498933</v>
+        <v>0.6680578666899524</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>693317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651785</v>
+        <v>651804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732152</v>
+        <v>732935</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4100780785299357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.385513039134895</v>
+        <v>0.3855246904787327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4330480891090265</v>
+        <v>0.4335112362184365</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>439</v>
@@ -1053,19 +1053,19 @@
         <v>447425</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>412765</v>
+        <v>405555</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483832</v>
+        <v>478861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2819852660323806</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2601408634568523</v>
+        <v>0.255596606853719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3049298783169394</v>
+        <v>0.3017969254413655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1110</v>
@@ -1074,19 +1074,19 @@
         <v>1140742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1084082</v>
+        <v>1087904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1194894</v>
+        <v>1202000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3480639613405923</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3307758522501063</v>
+        <v>0.3319421333100476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3645867910153754</v>
+        <v>0.3667550596669759</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>293324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>269168</v>
+        <v>267066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>318540</v>
+        <v>318678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5350602778557018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4909967433167921</v>
+        <v>0.487162983562643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5810574811357849</v>
+        <v>0.5813093154361618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>314</v>
@@ -1199,19 +1199,19 @@
         <v>330135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>310218</v>
+        <v>308354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>350000</v>
+        <v>350565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6929621168274637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6511542409041403</v>
+        <v>0.6472421327986538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7346577663404499</v>
+        <v>0.7358434698690679</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>593</v>
@@ -1220,19 +1220,19 @@
         <v>623459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>592216</v>
+        <v>591807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>652225</v>
+        <v>657347</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6084790527659225</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5779860653056147</v>
+        <v>0.5775873127474416</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6365534350939901</v>
+        <v>0.6415522407380315</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>254883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229667</v>
+        <v>229529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279039</v>
+        <v>281141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4649397221442983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4189425188642151</v>
+        <v>0.4186906845638384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5090032566832079</v>
+        <v>0.5128370164373571</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -1270,19 +1270,19 @@
         <v>146277</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126412</v>
+        <v>125847</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166194</v>
+        <v>168058</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3070378831725364</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2653422336595502</v>
+        <v>0.2641565301309321</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3488457590958606</v>
+        <v>0.3527578672013462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -1291,19 +1291,19 @@
         <v>401160</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>372394</v>
+        <v>367272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>432403</v>
+        <v>432812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3915209472340775</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.36344656490601</v>
+        <v>0.3584477592619684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4220139346943852</v>
+        <v>0.4224126872525583</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2039434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6242276955569039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2523</v>
@@ -1416,19 +1416,19 @@
         <v>2584614</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7652925706874355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4541</v>
@@ -1437,19 +1437,19 @@
         <v>4624048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6959294833155656</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1227698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1172170</v>
+        <v>1167046</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1286780</v>
+        <v>1283641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3757723044430961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.358776579144296</v>
+        <v>0.3572081923255819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3938560382382834</v>
+        <v>0.3928954465820785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -1487,19 +1487,19 @@
         <v>792675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>745381</v>
+        <v>745918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>840125</v>
+        <v>844471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2347074293125644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2207039690593418</v>
+        <v>0.2208629170388339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2487573524147623</v>
+        <v>0.2500441491553189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1959</v>
@@ -1508,19 +1508,19 @@
         <v>2020373</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1947322</v>
+        <v>1948109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2100365</v>
+        <v>2100537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3040705166844344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2930762606435692</v>
+        <v>0.2931947642430048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3161096059390808</v>
+        <v>0.316135435222692</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>779917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>752198</v>
+        <v>753199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>804759</v>
+        <v>803894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8010792264858587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7726076311171349</v>
+        <v>0.7736357275690646</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8265953576216482</v>
+        <v>0.8257063796501207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1122</v>
@@ -1872,19 +1872,19 @@
         <v>1199893</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1176206</v>
+        <v>1175039</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1221247</v>
+        <v>1220588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8976277432044745</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8799079888949464</v>
+        <v>0.8790349079133029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9136023753650967</v>
+        <v>0.9131091263344669</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1846</v>
@@ -1893,19 +1893,19 @@
         <v>1979811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1947771</v>
+        <v>1947184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2011005</v>
+        <v>2013259</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8569416148377368</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8430732056530734</v>
+        <v>0.8428191622524958</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8704437111034689</v>
+        <v>0.8714193771002523</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>193666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168824</v>
+        <v>169689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>221385</v>
+        <v>220384</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1989207735141413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1734046423783528</v>
+        <v>0.1742936203498791</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2273923688828662</v>
+        <v>0.2263642724309352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -1943,19 +1943,19 @@
         <v>136845</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115491</v>
+        <v>116150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160532</v>
+        <v>161699</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1023722567955255</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0863976246349033</v>
+        <v>0.08689087366553268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1200920111050536</v>
+        <v>0.1209650920866971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>307</v>
@@ -1964,19 +1964,19 @@
         <v>330511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>299317</v>
+        <v>297063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>362551</v>
+        <v>363138</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1430583851622632</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1295562888965314</v>
+        <v>0.1285806228997476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1569267943469266</v>
+        <v>0.1571808377475042</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1346126</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1304104</v>
+        <v>1303782</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1387552</v>
+        <v>1393234</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6857787529502226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.664370569338439</v>
+        <v>0.6642069264036968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7068830305498351</v>
+        <v>0.7097775732188114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1276</v>
@@ -2089,19 +2089,19 @@
         <v>1367769</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1331787</v>
+        <v>1329499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1403557</v>
+        <v>1403548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7781125695498763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.757643196197139</v>
+        <v>0.7563411265924199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7984720277231939</v>
+        <v>0.7984673892184309</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2543</v>
@@ -2110,19 +2110,19 @@
         <v>2713895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2655860</v>
+        <v>2659890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2767155</v>
+        <v>2771364</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7294005963276508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7138028374051469</v>
+        <v>0.7148859021284873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7437151867615815</v>
+        <v>0.7448463130541745</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>616790</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>575364</v>
+        <v>569682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>658812</v>
+        <v>659134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3142212470497774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2931169694501648</v>
+        <v>0.2902224267811886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3356294306615611</v>
+        <v>0.3357930735963032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -2160,19 +2160,19 @@
         <v>390034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354246</v>
+        <v>354255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>426016</v>
+        <v>428304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2218874304501237</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.201527972276806</v>
+        <v>0.2015326107815693</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2423568038028612</v>
+        <v>0.2436588734075806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>947</v>
@@ -2181,19 +2181,19 @@
         <v>1006824</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>953564</v>
+        <v>949355</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1064859</v>
+        <v>1060829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2705994036723492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2562848132384182</v>
+        <v>0.2551536869458255</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2861971625948531</v>
+        <v>0.2851140978715127</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>302273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>280072</v>
+        <v>279749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>323710</v>
+        <v>323693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6281902147642733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5820507152416915</v>
+        <v>0.5813803942477301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6727406195552345</v>
+        <v>0.672705750818744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>313</v>
@@ -2306,19 +2306,19 @@
         <v>350018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>329149</v>
+        <v>329381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>368823</v>
+        <v>367138</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7667264632187358</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7210142573908029</v>
+        <v>0.7215211345690232</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8079212583067077</v>
+        <v>0.8042300384845193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>585</v>
@@ -2327,19 +2327,19 @@
         <v>652291</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>623934</v>
+        <v>624119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>681441</v>
+        <v>679983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6956357701533588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6653935444596905</v>
+        <v>0.6655914456750842</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7267226153320309</v>
+        <v>0.7251678372826407</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>178908</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>157471</v>
+        <v>157488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201109</v>
+        <v>201432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3718097852357267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3272593804447655</v>
+        <v>0.327294249181256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4179492847583086</v>
+        <v>0.4186196057522698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -2377,19 +2377,19 @@
         <v>106491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87686</v>
+        <v>89371</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127360</v>
+        <v>127128</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2332735367812642</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1920787416932923</v>
+        <v>0.1957699615154806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2789857426091971</v>
+        <v>0.2784788654309768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>263</v>
@@ -2398,19 +2398,19 @@
         <v>285400</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>256250</v>
+        <v>257708</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>313757</v>
+        <v>313572</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3043642298466412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2732773846679692</v>
+        <v>0.2748321627173594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3346064555403096</v>
+        <v>0.3344085543249158</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>2428317</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2375190</v>
+        <v>2373945</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2482277</v>
+        <v>2481985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7105160215781224</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6949712597209968</v>
+        <v>0.6946070706971637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7263045886888826</v>
+        <v>0.7262189339702411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2711</v>
@@ -2523,19 +2523,19 @@
         <v>2917679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2869122</v>
+        <v>2864274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2964476</v>
+        <v>2962409</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8216384659208229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8079645344040547</v>
+        <v>0.80659910721031</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8348168248101903</v>
+        <v>0.834234620111061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4974</v>
@@ -2544,19 +2544,19 @@
         <v>5345996</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5270777</v>
+        <v>5275585</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5414356</v>
+        <v>5421295</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.767140581590559</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7563466927257654</v>
+        <v>0.7570366944079078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7769500472232566</v>
+        <v>0.7779457564114873</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>989364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>935404</v>
+        <v>935696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1042491</v>
+        <v>1043736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2894839784218775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2736954113111175</v>
+        <v>0.2737810660297587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3050287402790032</v>
+        <v>0.3053929293028364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>580</v>
@@ -2594,19 +2594,19 @@
         <v>633371</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>586574</v>
+        <v>588641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681928</v>
+        <v>686776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1783615340791772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1651831751898104</v>
+        <v>0.1657653798889391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1920354655959458</v>
+        <v>0.1934008927896901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1517</v>
@@ -2615,19 +2615,19 @@
         <v>1622735</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1554375</v>
+        <v>1547436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1697954</v>
+        <v>1693146</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.232859418409441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2230499527767436</v>
+        <v>0.2220542435885127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2436533072742346</v>
+        <v>0.2429633055920923</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>618615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>594117</v>
+        <v>597280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>638925</v>
+        <v>638464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.822474213373827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7899027347834421</v>
+        <v>0.79410833461153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8494777200079954</v>
+        <v>0.8488641421017221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>785</v>
@@ -2979,19 +2979,19 @@
         <v>878647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>857097</v>
+        <v>859340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>897787</v>
+        <v>899187</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8850104335110784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8633037056851635</v>
+        <v>0.8655632491717833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9042885234305831</v>
+        <v>0.9056993568952527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1416</v>
@@ -3000,19 +3000,19 @@
         <v>1497262</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1468496</v>
+        <v>1467361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1527503</v>
+        <v>1526094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8580549699367289</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8415694016509964</v>
+        <v>0.8409192997731435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8753856977738789</v>
+        <v>0.8745779047308578</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>133524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113214</v>
+        <v>113675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158022</v>
+        <v>154859</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.177525786626173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1505222799920047</v>
+        <v>0.1511358578982782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2100972652165583</v>
+        <v>0.2058916653884703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -3050,19 +3050,19 @@
         <v>114163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95023</v>
+        <v>93623</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135713</v>
+        <v>133470</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1149895664889215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09571147656941693</v>
+        <v>0.0943006431047473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1366962943148365</v>
+        <v>0.1344367508282168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>234</v>
@@ -3071,19 +3071,19 @@
         <v>247687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217446</v>
+        <v>218855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276453</v>
+        <v>277588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1419450300632711</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.124614302226121</v>
+        <v>0.1254220952691422</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1584305983490036</v>
+        <v>0.1590807002268566</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1517206</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1475433</v>
+        <v>1477090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1558744</v>
+        <v>1558360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7322778057793047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7121161195262871</v>
+        <v>0.7129158335888471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7523261716756628</v>
+        <v>0.7521407372186093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1515</v>
@@ -3196,19 +3196,19 @@
         <v>1586641</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1548568</v>
+        <v>1552101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1621603</v>
+        <v>1623018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8017237279216223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7824856365846466</v>
+        <v>0.784270810241023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8193899627153591</v>
+        <v>0.820104753326021</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2945</v>
@@ -3217,19 +3217,19 @@
         <v>3103847</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3046375</v>
+        <v>3044960</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3157460</v>
+        <v>3155475</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7662047997113255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7520176125737545</v>
+        <v>0.7516683143817032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7794397339579202</v>
+        <v>0.7789496080277606</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>554693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>513155</v>
+        <v>513539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>596466</v>
+        <v>594809</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2677221942206953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2476738283243372</v>
+        <v>0.2478592627813909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2878838804737129</v>
+        <v>0.2870841664111529</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -3267,19 +3267,19 @@
         <v>392396</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357434</v>
+        <v>356019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430469</v>
+        <v>426936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1982762720783777</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.180610037284641</v>
+        <v>0.1798952466739791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2175143634153536</v>
+        <v>0.2157291897589773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>902</v>
@@ -3288,19 +3288,19 @@
         <v>947089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>893476</v>
+        <v>895461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1004561</v>
+        <v>1005976</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2337952002886746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2205602660420799</v>
+        <v>0.2210503919722394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2479823874262454</v>
+        <v>0.2483316856182969</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>362812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>338055</v>
+        <v>339192</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>384977</v>
+        <v>385703</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6660109653079667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6205648195721206</v>
+        <v>0.6226515352495179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7066985992580145</v>
+        <v>0.7080307010331832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>382</v>
@@ -3413,19 +3413,19 @@
         <v>400000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>378242</v>
+        <v>378305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>423115</v>
+        <v>422113</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.72974741192413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6900525809571311</v>
+        <v>0.6901674754191597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7719183092983705</v>
+        <v>0.7700898737141524</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>714</v>
@@ -3434,19 +3434,19 @@
         <v>762812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>730538</v>
+        <v>732346</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>791668</v>
+        <v>794626</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6979777630983575</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.66844668463801</v>
+        <v>0.6701012840969872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7243813020248595</v>
+        <v>0.7270873710191962</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>181942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>159777</v>
+        <v>159051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>206699</v>
+        <v>205562</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3339890346920333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2933014007419855</v>
+        <v>0.2919692989668168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3794351804278793</v>
+        <v>0.3773484647504821</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -3484,19 +3484,19 @@
         <v>148135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125020</v>
+        <v>126022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169893</v>
+        <v>169830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.27025258807587</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2280816907016295</v>
+        <v>0.2299101262858476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3099474190428689</v>
+        <v>0.3098325245808403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -3505,19 +3505,19 @@
         <v>330077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>301221</v>
+        <v>298263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>362351</v>
+        <v>360543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3020222369016425</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2756186979751406</v>
+        <v>0.2729126289808038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.33155331536199</v>
+        <v>0.3298987159030127</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>2498632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2446096</v>
+        <v>2447405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2551576</v>
+        <v>2554804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7416999036300661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7261051037446286</v>
+        <v>0.726493621081109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7574158570820213</v>
+        <v>0.7583742030505789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2682</v>
@@ -3630,19 +3630,19 @@
         <v>2865289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2818657</v>
+        <v>2816996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2913112</v>
+        <v>2911669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8140065171494408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8007586826113061</v>
+        <v>0.8002867172503157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8275925433929276</v>
+        <v>0.8271827785117681</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5075</v>
@@ -3651,19 +3651,19 @@
         <v>5363921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5294421</v>
+        <v>5296370</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5435095</v>
+        <v>5437756</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7786466838270129</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7685578205697853</v>
+        <v>0.7688406859632668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7889785074603592</v>
+        <v>0.7893647724321133</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>870159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>817215</v>
+        <v>813987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>922695</v>
+        <v>921386</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2583000963699338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2425841429179786</v>
+        <v>0.2416257969494211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2738948962553715</v>
+        <v>0.273506378918891</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>632</v>
@@ -3701,19 +3701,19 @@
         <v>654694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>606871</v>
+        <v>608314</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>701326</v>
+        <v>702987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1859934828505592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1724074566070719</v>
+        <v>0.1728172214882319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1992413173886934</v>
+        <v>0.1997132827496843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1446</v>
@@ -3722,19 +3722,19 @@
         <v>1524853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1453679</v>
+        <v>1451018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1594353</v>
+        <v>1592404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2213533161729871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2110214925396409</v>
+        <v>0.2106352275678867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2314421794302147</v>
+        <v>0.2311593140367333</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>454898</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>432626</v>
+        <v>430969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>472133</v>
+        <v>474111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7916505463452538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7528900296996272</v>
+        <v>0.7500071914337453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8216432270601239</v>
+        <v>0.8250864329310111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1277</v>
@@ -4086,19 +4086,19 @@
         <v>726478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>709768</v>
+        <v>710127</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>739885</v>
+        <v>740931</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8860000690967447</v>
+        <v>0.8860000690967448</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8656219553481892</v>
+        <v>0.8660594524700227</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9023522020487174</v>
+        <v>0.9036268857851358</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1852</v>
@@ -4107,19 +4107,19 @@
         <v>1181376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1155180</v>
+        <v>1153254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1207997</v>
+        <v>1206976</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8471242714937941</v>
+        <v>0.847124271493794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8283403008521817</v>
+        <v>0.8269590621816763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8662135180063524</v>
+        <v>0.8654813921961649</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>119722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102487</v>
+        <v>100509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141994</v>
+        <v>143651</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2083494536547463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1783567729398761</v>
+        <v>0.1749135670689888</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2471099703003729</v>
+        <v>0.2499928085662548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -4157,19 +4157,19 @@
         <v>93474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80067</v>
+        <v>79021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110184</v>
+        <v>109825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1139999309032554</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09764779795128292</v>
+        <v>0.09637311421486422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1343780446518109</v>
+        <v>0.1339405475299775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>260</v>
@@ -4178,19 +4178,19 @@
         <v>213196</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186575</v>
+        <v>187596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>239392</v>
+        <v>241318</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1528757285062061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1337864819936475</v>
+        <v>0.1345186078038352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1716596991478184</v>
+        <v>0.1730409378183233</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1460673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1404731</v>
+        <v>1406397</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1515026</v>
+        <v>1510305</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6564281112140176</v>
+        <v>0.6564281112140177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6312879438736622</v>
+        <v>0.6320365302651567</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6808543783738252</v>
+        <v>0.6787330369469543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2180</v>
@@ -4303,19 +4303,19 @@
         <v>1610115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1570117</v>
+        <v>1569641</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1646279</v>
+        <v>1646413</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.743407264597404</v>
+        <v>0.7434072645974042</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7249397868313744</v>
+        <v>0.7247201562975533</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7601046447272896</v>
+        <v>0.7601664844988298</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3556</v>
@@ -4324,19 +4324,19 @@
         <v>3070787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3005038</v>
+        <v>3004749</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3132762</v>
+        <v>3135501</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.699330120890163</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6843568747449738</v>
+        <v>0.6842910467397361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7134442926315121</v>
+        <v>0.7140679886273977</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>764510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>710157</v>
+        <v>714878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>820452</v>
+        <v>818786</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3435718887859825</v>
+        <v>0.3435718887859826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3191456216261747</v>
+        <v>0.3212669630530455</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3687120561263378</v>
+        <v>0.3679634697348432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>734</v>
@@ -4374,19 +4374,19 @@
         <v>555743</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>519579</v>
+        <v>519445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>595741</v>
+        <v>596217</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2565927354025958</v>
+        <v>0.2565927354025959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2398953552727111</v>
+        <v>0.2398335155011702</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.275060213168626</v>
+        <v>0.2752798437024467</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1345</v>
@@ -4395,19 +4395,19 @@
         <v>1320253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1258278</v>
+        <v>1255539</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1386002</v>
+        <v>1386291</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.300669879109837</v>
+        <v>0.3006698791098371</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.286555707368488</v>
+        <v>0.2859320113726024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3156431252550259</v>
+        <v>0.315708953260264</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>464177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>435547</v>
+        <v>434803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>493170</v>
+        <v>488557</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.654465320011915</v>
+        <v>0.6544653200119149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6140980875848346</v>
+        <v>0.6130502238763084</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6953439745484195</v>
+        <v>0.6888402236592638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>695</v>
@@ -4520,19 +4520,19 @@
         <v>519370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>497129</v>
+        <v>496971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>542200</v>
+        <v>541646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7092249447533538</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6788535570650989</v>
+        <v>0.6786380967948568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7403997417199857</v>
+        <v>0.739643645551164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1145</v>
@@ -4541,19 +4541,19 @@
         <v>983547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>950377</v>
+        <v>943630</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1021567</v>
+        <v>1017121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6822831252922256</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6592731362319657</v>
+        <v>0.6545929311378774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7086569266432171</v>
+        <v>0.7055729281797251</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>245069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216076</v>
+        <v>220689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>273699</v>
+        <v>274443</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3455346799880851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3046560254515804</v>
+        <v>0.3111597763407363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3859019124151653</v>
+        <v>0.3869497761236917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>305</v>
@@ -4591,19 +4591,19 @@
         <v>212937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>190107</v>
+        <v>190661</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>235178</v>
+        <v>235336</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2907750552466463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2596002582800143</v>
+        <v>0.2603563544488359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.321146442934901</v>
+        <v>0.3213619032051435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>534</v>
@@ -4612,19 +4612,19 @@
         <v>458006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>419986</v>
+        <v>424432</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491176</v>
+        <v>497923</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3177168747077744</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.291343073356783</v>
+        <v>0.2944270718202748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3407268637680343</v>
+        <v>0.3454070688621225</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>2379748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2308601</v>
+        <v>2314619</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2438021</v>
+        <v>2442238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6781745636337463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6578992624975173</v>
+        <v>0.6596143078778599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6947810741217723</v>
+        <v>0.6959827791359747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4152</v>
@@ -4737,19 +4737,19 @@
         <v>2855962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2804620</v>
+        <v>2807780</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2903331</v>
+        <v>2897549</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7681206713722571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7543120521546872</v>
+        <v>0.7551619200495188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.780860797884766</v>
+        <v>0.7793057849308945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6553</v>
@@ -4758,19 +4758,19 @@
         <v>5235710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5160821</v>
+        <v>5153808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5312573</v>
+        <v>5316744</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7244485991370794</v>
+        <v>0.7244485991370795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7140865082584564</v>
+        <v>0.7131160824904224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7350839949078388</v>
+        <v>0.7356611341294554</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1129301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1071028</v>
+        <v>1066811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1200448</v>
+        <v>1194430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3218254363662538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3052189258782276</v>
+        <v>0.3040172208640253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3421007375024828</v>
+        <v>0.3403856921221399</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1186</v>
@@ -4808,19 +4808,19 @@
         <v>862154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>814785</v>
+        <v>820567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>913496</v>
+        <v>910336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.231879328627743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.219139202115234</v>
+        <v>0.2206942150691055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2456879478453128</v>
+        <v>0.2448380799504812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2139</v>
@@ -4829,19 +4829,19 @@
         <v>1991455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1914592</v>
+        <v>1910421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2066344</v>
+        <v>2073357</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2755514008629206</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2649160050921612</v>
+        <v>0.2643388658705446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2859134917415435</v>
+        <v>0.2868839175095774</v>
       </c>
     </row>
     <row r="15">
